--- a/example-bill.xlsx
+++ b/example-bill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Abrechnung" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t xml:space="preserve">Nebenkostenabrechnung &lt;Appartement-Name&gt;</t>
   </si>
@@ -29,78 +29,57 @@
     <t xml:space="preserve">Zeitraum:</t>
   </si>
   <si>
+    <t xml:space="preserve">Strom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heizung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wasser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Müll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regenwasser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versicherung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grundsteuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schornsteinfeger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abschlagszahlungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Von</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anmerkung</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zähler</t>
   </si>
   <si>
-    <t xml:space="preserve">Differenz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1HLY0001014347 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strom (HT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wasser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8SEN0121101737 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strom (NT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34845523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heizung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Müll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regenwasser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Versicherung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grundsteuer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schornsteinfeger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abschlagszahlungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Von</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beschreibung</t>
-  </si>
-  <si>
     <t xml:space="preserve">Netto</t>
   </si>
   <si>
@@ -113,7 +92,7 @@
     <t xml:space="preserve">Brutto</t>
   </si>
   <si>
-    <t xml:space="preserve">Rechnungszeitraum (Tage)</t>
+    <t xml:space="preserve">Rechnungszeitraum</t>
   </si>
   <si>
     <t xml:space="preserve">Anteil</t>
@@ -126,17 +105,17 @@
   <numFmts count="13">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="166" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot; kWh&quot;"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00&quot; m³&quot;"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00&quot; €&quot;"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00&quot; €&quot;_-;\-* #,##0.00&quot; €&quot;_-;_-* \-??&quot; €&quot;_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="#0&quot; Monate&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot; €&quot;"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00&quot; €&quot;_-;\-* #,##0.00&quot; €&quot;_-;_-* \-??&quot; €&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="#0&quot; Monate&quot;"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
+    <numFmt numFmtId="171" formatCode="0.00\ %"/>
     <numFmt numFmtId="172" formatCode="0"/>
     <numFmt numFmtId="173" formatCode="0\ %"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="0.00"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.0000000&quot; €&quot;_-;\-* #,##0.0000000&quot; €&quot;_-;_-* \-??&quot; €&quot;_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="@"/>
+    <numFmt numFmtId="175" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.00"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -244,11 +223,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -256,7 +235,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -277,19 +256,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -297,27 +288,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -325,6 +296,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -333,11 +308,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -349,27 +332,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -445,7 +428,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -844,7 +827,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Abrechnung!$B$11:$B$19</c:f>
+              <c:f>Abrechnung!$B$5:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -879,7 +862,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Abrechnung!$C$11:$C$19</c:f>
+              <c:f>Abrechnung!$C$5:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -946,14 +929,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>266760</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>85680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>513720</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:colOff>513360</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -961,8 +944,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="266760" y="5457960"/>
-        <a:ext cx="10694520" cy="5981040"/>
+        <a:off x="266760" y="4314960"/>
+        <a:ext cx="10694160" cy="5980680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -980,10 +963,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:G26"/>
+  <dimension ref="B1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1011,238 +994,140 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="5" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="n">
-        <v>44044</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>44196</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>6717.6</v>
-      </c>
-      <c r="F5" s="8" t="n">
-        <v>8074</v>
-      </c>
-      <c r="G5" s="8" t="n">
-        <f aca="false">F5-E5</f>
-        <v>1356.4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>34845523</v>
-      </c>
-      <c r="E6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8" t="n">
-        <f aca="false">F6-E6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>7019110028573940</v>
-      </c>
-      <c r="E7" s="8" t="n">
-        <v>18004.6</v>
-      </c>
-      <c r="F7" s="8" t="n">
-        <v>19040.9</v>
-      </c>
-      <c r="G7" s="8" t="n">
-        <f aca="false">F7-E7</f>
-        <v>1036.3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9" t="n">
-        <v>91.786</v>
-      </c>
-      <c r="G8" s="9" t="n">
-        <f aca="false">F8-E8</f>
-        <v>91.786</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8" t="n">
-        <f aca="false">F9-E9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="10" t="n">
+      <c r="C5" s="6" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31, "Strom", Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="10" t="n">
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31, "Gas", Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="10" t="n">
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31, "Wasser", Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="10" t="n">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31,"Biomüll",Details!$N$2:$N$31)+SUMIF(Details!$D$2:$D$31,"Müll",Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="13" t="n">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31,"Regenwasser",Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="13" t="n">
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31,"Versicherung",Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="13" t="n">
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="9" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31,"Grundsteuer",Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="13" t="n">
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31,"Internet",Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="13" t="n">
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="9" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31,"Schornsteinfeger",Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G21" s="11" t="n">
-        <f aca="false">SUM(C11:C19)</f>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="7" t="n">
+        <f aca="false">SUM(C5:C13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="14" t="n">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="11" t="n">
         <v>44044</v>
       </c>
-      <c r="C24" s="14" t="n">
+      <c r="C18" s="11" t="n">
         <v>44196</v>
       </c>
-      <c r="E24" s="11" t="n">
+      <c r="E18" s="7" t="n">
         <v>300</v>
       </c>
-      <c r="F24" s="15" t="n">
-        <f aca="false">DATEDIF(B24,C24,"M")+1</f>
+      <c r="F18" s="12" t="n">
+        <f aca="false">DATEDIF(B18,C18,"M")+1</f>
         <v>5</v>
       </c>
-      <c r="G24" s="11" t="n">
-        <f aca="false">F24*E24</f>
+      <c r="G18" s="7" t="n">
+        <f aca="false">F18*E18</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="11" t="n">
-        <f aca="false">G21-G24</f>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <f aca="false">G15-G18</f>
         <v>-1500</v>
       </c>
     </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1262,334 +1147,314 @@
   </sheetPr>
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S29" activeCellId="0" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="16" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="11.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="10.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="14" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="16" width="9.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="17" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="17" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="18" width="9.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="16" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="15" width="9.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="14" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="16" width="19.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="16" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="17" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="14" width="12.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.42"/>
   </cols>
   <sheetData>
     <row r="1" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="J1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="K1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="L1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="22"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="20" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="23"/>
-      <c r="F2" s="7"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="23"/>
-      <c r="F3" s="7"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="L3" s="26"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="23"/>
-      <c r="F4" s="7"/>
-      <c r="I4" s="25"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="F4" s="26"/>
+      <c r="I4" s="28"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="23"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="27"/>
-      <c r="I5" s="25"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="23"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="27"/>
-      <c r="I6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="23"/>
-      <c r="F7" s="7"/>
-      <c r="I7" s="25"/>
-      <c r="L7" s="26"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="I7" s="28"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="23"/>
-      <c r="F8" s="7"/>
-      <c r="I8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="I8" s="28"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="23"/>
-      <c r="F9" s="7"/>
-      <c r="I9" s="25"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="23"/>
-      <c r="F10" s="7"/>
-      <c r="I10" s="25"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="23"/>
-      <c r="I11" s="25"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="23"/>
-      <c r="F12" s="7"/>
-      <c r="I12" s="28"/>
-      <c r="L12" s="26"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="L12" s="29"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="23"/>
-      <c r="F13" s="7"/>
-      <c r="I13" s="28"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="23"/>
-      <c r="F14" s="7"/>
-      <c r="I14" s="28"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="23"/>
-      <c r="F15" s="7"/>
-      <c r="I15" s="28"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="23"/>
-      <c r="F16" s="7"/>
-      <c r="I16" s="28"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="23"/>
-      <c r="F17" s="7"/>
-      <c r="I17" s="28"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="23"/>
-      <c r="F18" s="7"/>
-      <c r="I18" s="28"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="23"/>
-      <c r="I19" s="28"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="23"/>
-      <c r="I20" s="28"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="23"/>
-      <c r="I21" s="28"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="23"/>
-      <c r="I22" s="28"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="23"/>
-      <c r="I23" s="28"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="23"/>
-      <c r="I24" s="28"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="23"/>
-      <c r="I25" s="28"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="23"/>
-      <c r="I26" s="28"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="23"/>
-      <c r="I27" s="28"/>
-      <c r="L27" s="26"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="L27" s="29"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="23"/>
-      <c r="I28" s="28"/>
-      <c r="L28" s="26"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="L28" s="29"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="23"/>
-      <c r="I29" s="28"/>
-      <c r="L29" s="26"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="L29" s="29"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="23"/>
-      <c r="I30" s="28"/>
-      <c r="L30" s="26"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="L30" s="29"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="23"/>
-      <c r="I31" s="28"/>
-      <c r="L31" s="26"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="L31" s="29"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="23"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="23"/>
+      <c r="C33" s="25"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="23"/>
+      <c r="C34" s="25"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="23"/>
+      <c r="C35" s="25"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="23"/>
+      <c r="C36" s="25"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="23"/>
+      <c r="C37" s="25"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="23"/>
+      <c r="C38" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/example-bill.xlsx
+++ b/example-bill.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Abrechnung" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Zusammenfassung" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Details" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Zählerstände" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,8 +21,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Zeitraum, der dem Mieter in Rechnung gestellt wird.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Zeitraum über den die Kosten entstanden sind.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t xml:space="preserve">Nebenkostenabrechnung &lt;Appartement-Name&gt;</t>
   </si>
@@ -29,6 +68,12 @@
     <t xml:space="preserve">Zeitraum:</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;Bill-Range-Begin&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bill-Range-End&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">Strom</t>
   </si>
   <si>
@@ -56,68 +101,84 @@
     <t xml:space="preserve">Schornsteinfeger</t>
   </si>
   <si>
+    <t xml:space="preserve">Summe Nebenkosten</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abschlagszahlungen</t>
   </si>
   <si>
+    <t xml:space="preserve">Ergebnis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Von</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anmerkung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zähler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brutto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechnungszeitraum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anteil</t>
+  </si>
+  <si>
     <t xml:space="preserve">Summe</t>
   </si>
   <si>
-    <t xml:space="preserve">Von</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anmerkung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zähler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steuer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brutto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rechnungszeitraum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anteil</t>
+    <t xml:space="preserve">Datum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anmerkungen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="13">
+  <numFmts count="14">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot; €&quot;"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00&quot; €&quot;_-;\-* #,##0.00&quot; €&quot;_-;_-* \-??&quot; €&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="#0&quot; Monate&quot;"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
-    <numFmt numFmtId="171" formatCode="0.00\ %"/>
-    <numFmt numFmtId="172" formatCode="0"/>
-    <numFmt numFmtId="173" formatCode="0\ %"/>
-    <numFmt numFmtId="174" formatCode="@"/>
-    <numFmt numFmtId="175" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
+    <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot; €&quot;"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00&quot; €&quot;_-;\-* #,##0.00&quot; €&quot;_-;_-* \-??&quot; €&quot;_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="#0&quot; Monate&quot;"/>
+    <numFmt numFmtId="170" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
+    <numFmt numFmtId="172" formatCode="0.00\ %"/>
+    <numFmt numFmtId="173" formatCode="0"/>
+    <numFmt numFmtId="174" formatCode="0\ %"/>
+    <numFmt numFmtId="175" formatCode="@"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -149,7 +210,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <u val="single"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -166,6 +226,23 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <u val="double"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -177,14 +254,6 @@
       <color rgb="FF404040"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,19 +292,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,6 +313,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -252,27 +325,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -280,23 +369,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -304,35 +393,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -340,19 +441,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -428,7 +517,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -827,7 +916,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Abrechnung!$B$5:$B$13</c:f>
+              <c:f>Zusammenfassung!$B$5:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -862,7 +951,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Abrechnung!$C$5:$C$13</c:f>
+              <c:f>Zusammenfassung!$D$5:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -927,16 +1016,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266760</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19800</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>85680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>513360</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>10080</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -944,8 +1033,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="266760" y="4314960"/>
-        <a:ext cx="10694160" cy="5980680"/>
+        <a:off x="772200" y="4086360"/>
+        <a:ext cx="6887160" cy="5979960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -965,162 +1054,176 @@
   </sheetPr>
   <dimension ref="B1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="65.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E2" s="3" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>44044</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>44196</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31, "Strom", Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="n">
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31, "Gas", Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="n">
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31, "Wasser", Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="n">
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31,"Biomüll",Details!$N$2:$N$31)+SUMIF(Details!$D$2:$D$31,"Müll",Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9" t="n">
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="12" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31,"Regenwasser",Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="9" t="n">
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="12" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31,"Versicherung",Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="9" t="n">
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="12" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31,"Grundsteuer",Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9" t="n">
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="12" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31,"Internet",Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="9" t="n">
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="12" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31,"Schornsteinfeger",Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G15" s="7" t="n">
-        <f aca="false">SUM(C5:C13)</f>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="14" t="n">
+        <f aca="false">SUM(D4:D15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="11" t="n">
-        <v>44044</v>
-      </c>
-      <c r="C18" s="11" t="n">
-        <v>44196</v>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>300</v>
-      </c>
-      <c r="F18" s="12" t="n">
-        <f aca="false">DATEDIF(B18,C18,"M")+1</f>
-        <v>5</v>
-      </c>
-      <c r="G18" s="7" t="n">
-        <f aca="false">F18*E18</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="n">
-        <f aca="false">G15-G18</f>
-        <v>-1500</v>
-      </c>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="18" t="n">
+        <f aca="false">D17-D16</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="0"/>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1148,313 +1251,313 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S29" activeCellId="0" sqref="S29"/>
+      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="10.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="11.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="10.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="14" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="20" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="15" width="9.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="14" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="16" width="19.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="16" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="17" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="14" width="12.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="21" width="9.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="20" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="22" width="19.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="22" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="23" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="20" width="12.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.42"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="19" t="s">
+    <row r="1" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="B1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="C1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="D1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="E1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="F1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="G1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="H1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="I1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="20" t="s">
-        <v>12</v>
+      <c r="J1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="28"/>
+      <c r="N1" s="25" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="F3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
-      <c r="L3" s="29"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="F4" s="26"/>
-      <c r="I4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="F4" s="31"/>
+      <c r="I4" s="33"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="I5" s="28"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="I5" s="33"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="I6" s="28"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="I7" s="28"/>
-      <c r="L7" s="29"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="I7" s="33"/>
+      <c r="L7" s="34"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="I8" s="28"/>
-      <c r="L8" s="29"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="I8" s="33"/>
+      <c r="L8" s="34"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="I9" s="28"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="I10" s="28"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="F10" s="31"/>
+      <c r="I10" s="33"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="I11" s="28"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="I11" s="33"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="L12" s="29"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="L12" s="34"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="F16" s="26"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="F18" s="26"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="F18" s="31"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="L27" s="29"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="L27" s="34"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="L28" s="29"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="L28" s="34"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="L29" s="29"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="L29" s="34"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="L30" s="29"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="L30" s="34"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="L31" s="29"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="L31" s="34"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="25"/>
+      <c r="C32" s="30"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="25"/>
+      <c r="C33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="25"/>
+      <c r="C34" s="30"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="25"/>
+      <c r="C35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="25"/>
+      <c r="C36" s="30"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="25"/>
+      <c r="C37" s="30"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="25"/>
+      <c r="C38" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1467,5 +1570,49 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.81"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;KffffffSeite &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/example-bill.xlsx
+++ b/example-bill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung" sheetId="1" state="visible" r:id="rId2"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t xml:space="preserve">Nebenkostenabrechnung &lt;Appartement-Name&gt;</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;Bill-Range-End&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kategorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monatlich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamt</t>
   </si>
   <si>
     <t xml:space="preserve">Strom</t>
@@ -162,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="14">
+  <numFmts count="13">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
     <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy"/>
@@ -170,13 +179,12 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.00&quot; €&quot;_-;\-* #,##0.00&quot; €&quot;_-;_-* \-??&quot; €&quot;_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="#0&quot; Monate&quot;"/>
     <numFmt numFmtId="170" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
-    <numFmt numFmtId="172" formatCode="0.00\ %"/>
-    <numFmt numFmtId="173" formatCode="0"/>
-    <numFmt numFmtId="174" formatCode="0\ %"/>
-    <numFmt numFmtId="175" formatCode="@"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0.00"/>
+    <numFmt numFmtId="171" formatCode="0.00\ %"/>
+    <numFmt numFmtId="172" formatCode="0"/>
+    <numFmt numFmtId="173" formatCode="0\ %"/>
+    <numFmt numFmtId="174" formatCode="@"/>
+    <numFmt numFmtId="175" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.00"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -219,6 +227,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -227,13 +242,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -292,7 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -300,11 +308,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -333,23 +341,71 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -357,31 +413,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -389,59 +445,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -517,7 +521,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1023,9 +1027,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>10080</xdr:colOff>
+      <xdr:colOff>9720</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1033,8 +1037,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="772200" y="4086360"/>
-        <a:ext cx="6887160" cy="5979960"/>
+        <a:off x="772200" y="4070880"/>
+        <a:ext cx="6886800" cy="5979600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1054,8 +1058,8 @@
   </sheetPr>
   <dimension ref="B1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1082,148 +1086,155 @@
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="n">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31, "Strom", Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="n">
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31, "Gas", Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="n">
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31, "Wasser", Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="n">
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31,"Biomüll",Details!$N$2:$N$31)+SUMIF(Details!$D$2:$D$31,"Müll",Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="12" t="n">
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="14" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31,"Regenwasser",Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="12" t="n">
+      <c r="B10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="14" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31,"Versicherung",Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="12" t="n">
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="14" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31,"Grundsteuer",Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="12" t="n">
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="14" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31,"Internet",Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="12" t="n">
+      <c r="B13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="14" t="n">
         <f aca="false">SUMIF(Details!$D$2:$D$31,"Schornsteinfeger",Details!$N$2:$N$31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G15" s="10"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="14" t="n">
+      <c r="B16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="8" t="n">
         <f aca="false">SUM(D4:D15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="14" t="n">
+        <v>17</v>
+      </c>
+      <c r="D17" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="10"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="14"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" s="17" t="n">
         <f aca="false">D17-D16</f>
         <v>0</v>
       </c>
-      <c r="G20" s="0"/>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1256,308 +1267,308 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="10.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="11.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="10.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="20" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="19" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="21" width="9.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="20" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="22" width="19.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="22" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="23" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="20" width="12.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="20" width="9.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="19" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="21" width="19.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="21" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="22" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="19" width="12.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.42"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="13" t="s">
+    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="I1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>28</v>
       </c>
+      <c r="K1" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="27"/>
+      <c r="N1" s="24" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="F2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="L3" s="34"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
+      <c r="L3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="F4" s="31"/>
-      <c r="I4" s="33"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="I4" s="32"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="I5" s="33"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="F6" s="31"/>
-      <c r="I6" s="33"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="F7" s="31"/>
-      <c r="I7" s="33"/>
-      <c r="L7" s="34"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="I7" s="32"/>
+      <c r="L7" s="33"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="F8" s="31"/>
-      <c r="I8" s="33"/>
-      <c r="L8" s="34"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="I8" s="32"/>
+      <c r="L8" s="33"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="F9" s="31"/>
-      <c r="I9" s="33"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="F10" s="31"/>
-      <c r="I10" s="33"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="I11" s="33"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="F12" s="31"/>
-      <c r="L12" s="34"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="F13" s="31"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="F14" s="30"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="F15" s="31"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="L27" s="34"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="L27" s="33"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="L28" s="34"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="L28" s="33"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="L29" s="34"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="L29" s="33"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="L30" s="34"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="L30" s="33"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="L31" s="34"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="L31" s="33"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="30"/>
+      <c r="C32" s="29"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="30"/>
+      <c r="C33" s="29"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="30"/>
+      <c r="C34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="30"/>
+      <c r="C35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="30"/>
+      <c r="C36" s="29"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="30"/>
+      <c r="C37" s="29"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="30"/>
+      <c r="C38" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1581,29 +1592,29 @@
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.81"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>31</v>
+    <row r="1" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/example-bill.xlsx
+++ b/example-bill.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t xml:space="preserve">Nebenkostenabrechnung &lt;Appartement-Name&gt;</t>
   </si>
@@ -81,42 +81,6 @@
   </si>
   <si>
     <t xml:space="preserve">Gesamt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heizung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wasser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Müll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regenwasser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Versicherung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grundsteuer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schornsteinfeger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summe Nebenkosten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abschlagszahlungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ergebnis</t>
   </si>
   <si>
     <t xml:space="preserve">Von</t>
@@ -186,7 +150,7 @@
     <numFmt numFmtId="175" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -230,6 +194,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -312,7 +283,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -329,7 +300,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -357,31 +328,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -425,7 +400,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -924,31 +899,31 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Strom</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Heizung</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Wasser</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Müll</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Regenwasser</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Versicherung</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Grundsteuer</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Internet</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Schornsteinfeger</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -959,33 +934,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1027,9 +975,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9720</xdr:colOff>
+      <xdr:colOff>9360</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1037,8 +985,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="772200" y="4070880"/>
-        <a:ext cx="6886800" cy="5979600"/>
+        <a:off x="772200" y="4040640"/>
+        <a:ext cx="6886440" cy="5979240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1059,7 +1007,7 @@
   <dimension ref="B1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1099,142 +1047,84 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="11" t="n">
-        <f aca="false">SUMIF(Details!$D$2:$D$31, "Strom", Details!$N$2:$N$31)</f>
-        <v>0</v>
-      </c>
+      <c r="D5" s="11"/>
       <c r="E5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="B6" s="9"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="11" t="n">
-        <f aca="false">SUMIF(Details!$D$2:$D$31, "Gas", Details!$N$2:$N$31)</f>
-        <v>0</v>
-      </c>
+      <c r="D6" s="11"/>
       <c r="E6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B7" s="9"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="11" t="n">
-        <f aca="false">SUMIF(Details!$D$2:$D$31, "Wasser", Details!$N$2:$N$31)</f>
-        <v>0</v>
-      </c>
+      <c r="D7" s="11"/>
       <c r="E7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="11" t="n">
-        <f aca="false">SUMIF(Details!$D$2:$D$31,"Biomüll",Details!$N$2:$N$31)+SUMIF(Details!$D$2:$D$31,"Müll",Details!$N$2:$N$31)</f>
-        <v>0</v>
-      </c>
+      <c r="D8" s="11"/>
       <c r="E8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="B9" s="9"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="14" t="n">
-        <f aca="false">SUMIF(Details!$D$2:$D$31,"Regenwasser",Details!$N$2:$N$31)</f>
-        <v>0</v>
-      </c>
+      <c r="D9" s="14"/>
       <c r="E9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="14" t="n">
-        <f aca="false">SUMIF(Details!$D$2:$D$31,"Versicherung",Details!$N$2:$N$31)</f>
-        <v>0</v>
-      </c>
+      <c r="D10" s="14"/>
       <c r="E10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B11" s="9"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="14" t="n">
-        <f aca="false">SUMIF(Details!$D$2:$D$31,"Grundsteuer",Details!$N$2:$N$31)</f>
-        <v>0</v>
-      </c>
+      <c r="D11" s="14"/>
       <c r="E11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B12" s="9"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="14" t="n">
-        <f aca="false">SUMIF(Details!$D$2:$D$31,"Internet",Details!$N$2:$N$31)</f>
-        <v>0</v>
-      </c>
+      <c r="D12" s="14"/>
       <c r="E12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B13" s="9"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="14" t="n">
-        <f aca="false">SUMIF(Details!$D$2:$D$31,"Schornsteinfeger",Details!$N$2:$N$31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="8" t="n">
-        <f aca="false">SUM(D4:D15)</f>
-        <v>0</v>
-      </c>
+      <c r="B16" s="7"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="B17" s="15"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="8"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="16"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="17" t="n">
-        <f aca="false">D17-D16</f>
-        <v>0</v>
-      </c>
+      <c r="B20" s="15"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1262,313 +1152,313 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
+      <selection pane="topLeft" activeCell="M8" activeCellId="1" sqref="B5:D20 M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="10.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="11.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="10.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="19" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="20" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="20" width="9.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="19" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="21" width="19.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="21" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="22" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="19" width="12.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="21" width="9.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="20" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="22" width="19.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="22" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="23" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="20" width="12.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.42"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="28"/>
+      <c r="N1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="24" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="32"/>
-      <c r="L3" s="33"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="I4" s="32"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="F4" s="31"/>
+      <c r="I4" s="33"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="I5" s="32"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="I5" s="33"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="I6" s="32"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="I7" s="32"/>
-      <c r="L7" s="33"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="I7" s="33"/>
+      <c r="L7" s="34"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="I8" s="32"/>
-      <c r="L8" s="33"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="I8" s="33"/>
+      <c r="L8" s="34"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="I9" s="32"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="I10" s="32"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="F10" s="31"/>
+      <c r="I10" s="33"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="I11" s="32"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="I11" s="33"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="L12" s="33"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="L12" s="34"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="F17" s="30"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="F18" s="31"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="L27" s="33"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="L27" s="34"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="L28" s="33"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="L28" s="34"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="L29" s="33"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="L29" s="34"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="L30" s="33"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="L30" s="34"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="L31" s="33"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="L31" s="34"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="29"/>
+      <c r="C32" s="30"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="29"/>
+      <c r="C33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="29"/>
+      <c r="C34" s="30"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="29"/>
+      <c r="C35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="29"/>
+      <c r="C36" s="30"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="29"/>
+      <c r="C37" s="30"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="29"/>
+      <c r="C38" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1593,7 +1483,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="B5:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1605,16 +1495,16 @@
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/example-bill.xlsx
+++ b/example-bill.xlsx
@@ -150,7 +150,7 @@
     <numFmt numFmtId="175" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -227,12 +227,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF404040"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -433,570 +427,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF5B9BD5"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D9D9"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF4472C4"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFED7D31"/>
-      <rgbColor rgb="FF636363"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF70AD47"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF9E480E"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF264478"/>
-      <rgbColor rgb="FF404040"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4472c4"/>
-              </a:solidFill>
-              <a:ln w="19080">
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-              <a:ln w="19080">
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
-              </a:solidFill>
-              <a:ln w="19080">
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffc000"/>
-              </a:solidFill>
-              <a:ln w="19080">
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
-              </a:solidFill>
-              <a:ln w="19080">
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="70ad47"/>
-              </a:solidFill>
-              <a:ln w="19080">
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="264478"/>
-              </a:solidFill>
-              <a:ln w="19080">
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="9e480e"/>
-              </a:solidFill>
-              <a:ln w="19080">
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="636363"/>
-              </a:solidFill>
-              <a:ln w="19080">
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00&quot; €&quot;" sourceLinked="1"/>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:numFmt formatCode="#,##0.00&quot; €&quot;" sourceLinked="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:numFmt formatCode="#,##0.00&quot; €&quot;" sourceLinked="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:numFmt formatCode="#,##0.00&quot; €&quot;" sourceLinked="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:numFmt formatCode="#,##0.00&quot; €&quot;" sourceLinked="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:numFmt formatCode="#,##0.00&quot; €&quot;" sourceLinked="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:numFmt formatCode="#,##0.00&quot; €&quot;" sourceLinked="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:numFmt formatCode="#,##0.00&quot; €&quot;" sourceLinked="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:numFmt formatCode="#,##0.00&quot; €&quot;" sourceLinked="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:numFmt formatCode="#,##0.00&quot; €&quot;" sourceLinked="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="404040"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Zusammenfassung!$B$5:$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Zusammenfassung!$D$5:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Diagramm 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="772200" y="4040640"/>
-        <a:ext cx="6886440" cy="5979240"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1007,7 +438,7 @@
   <dimension ref="B1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5:D20"/>
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1140,7 +571,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1152,7 +582,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="1" sqref="B5:D20 M8"/>
+      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1483,7 +913,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="B5:D20"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/example-bill.xlsx
+++ b/example-bill.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t xml:space="preserve">Nebenkostenabrechnung &lt;Appartement-Name&gt;</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t xml:space="preserve">Summe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachweis</t>
   </si>
   <si>
     <t xml:space="preserve">Datum</t>
@@ -438,7 +441,7 @@
   <dimension ref="B1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -566,7 +569,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="80" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -582,7 +585,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -591,7 +594,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="10.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="20" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12"/>
@@ -604,7 +607,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.42"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
@@ -644,6 +647,9 @@
       <c r="M1" s="28"/>
       <c r="N1" s="25" t="s">
         <v>19</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,13 +934,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
